--- a/05_Gestantes/05_python/calendario-procedimentos.xlsx
+++ b/05_Gestantes/05_python/calendario-procedimentos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapei_Cigets\Documents\GitHub\dimensionamento\05_Gestantes\03_profissionais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapei_Cigets\Documents\GitHub\dimensionamento\05_Gestantes\05_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5159F633-C409-4DCE-BCB1-AAA2EAF136A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC602B5A-1499-4C04-9802-E8DDA7D91B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="procedimentos" sheetId="1" r:id="rId1"/>
@@ -3717,8 +3717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B80671E-CE83-4199-80A6-EAFC03570B01}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3746,7 +3746,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="9">
-        <v>1</v>
+        <v>1.266</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4142,7 +4142,7 @@
         <v>96</v>
       </c>
       <c r="C38" s="9">
-        <v>0.5</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -4153,7 +4153,7 @@
         <v>97</v>
       </c>
       <c r="C39" s="9">
-        <v>0.5</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -4164,7 +4164,7 @@
         <v>98</v>
       </c>
       <c r="C40" s="9">
-        <v>0.5</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -4175,7 +4175,7 @@
         <v>99</v>
       </c>
       <c r="C41" s="9">
-        <v>0.5</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -4186,7 +4186,7 @@
         <v>100</v>
       </c>
       <c r="C42" s="9">
-        <v>0.5</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -4197,7 +4197,7 @@
         <v>101</v>
       </c>
       <c r="C43" s="9">
-        <v>0.5</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -4208,7 +4208,7 @@
         <v>102</v>
       </c>
       <c r="C44" s="9">
-        <v>0.5</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -4219,7 +4219,7 @@
         <v>103</v>
       </c>
       <c r="C45" s="9">
-        <v>0.5</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -4230,7 +4230,7 @@
         <v>104</v>
       </c>
       <c r="C46" s="9">
-        <v>0.5</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -4241,7 +4241,7 @@
         <v>105</v>
       </c>
       <c r="C47" s="9">
-        <v>0.5</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -4252,7 +4252,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="9">
-        <v>0.5</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -4627,7 +4627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E4A308-1EFC-4EB7-B73F-B08C0D7331D9}">
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:A28"/>
     </sheetView>
   </sheetViews>
